--- a/report/模型方针.xlsx
+++ b/report/模型方针.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kaggle\2020-NCAAM\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB608B-6B64-4222-AFDD-DABB501CBE55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8F47A4-C86F-40D1-87F3-3EE7CA704CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AF72B365-8FEA-4E92-8DDD-0134CFD12162}"/>
+    <workbookView xWindow="2295" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{AF72B365-8FEA-4E92-8DDD-0134CFD12162}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -239,6 +240,46 @@
   </si>
   <si>
     <t>datamart_name_version_0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>TeamID_a</t>
+  </si>
+  <si>
+    <t>TeamID_b</t>
+  </si>
+  <si>
+    <t>diff_score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有正负，低ID-高ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低ID胜负情况（胜1 负0）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team_a_FGM2_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面队伍的2分球投篮命中率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team_a_FGM3_rate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +318,15 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +351,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -418,13 +472,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,89 +541,98 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED05429-74C0-41CC-8B35-32A1B500AAE4}">
   <dimension ref="G3:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -913,7 +1002,7 @@
       <c r="J6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -924,7 +1013,7 @@
       <c r="J7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="7:33" ht="57" x14ac:dyDescent="0.2">
       <c r="I8" s="2" t="s">
@@ -1002,54 +1091,54 @@
       </c>
     </row>
     <row r="13" spans="7:33" s="1" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="16"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="15"/>
     </row>
     <row r="14" spans="7:33" x14ac:dyDescent="0.2">
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="23" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="23" t="s">
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="23" t="s">
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="35" t="s">
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U14" s="36" t="s">
+      <c r="U14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="36" t="s">
+      <c r="V14" s="32" t="s">
         <v>49</v>
       </c>
       <c r="W14" s="8" t="s">
@@ -1060,322 +1149,322 @@
       </c>
     </row>
     <row r="15" spans="7:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="28" t="s">
+      <c r="N15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="28" t="s">
+      <c r="O15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="P15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="Q15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="28" t="s">
+      <c r="R15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="28" t="s">
+      <c r="S15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="T15" s="37" t="s">
+      <c r="T15" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
       <c r="W15" s="9"/>
       <c r="X15" s="11"/>
     </row>
     <row r="16" spans="7:33" x14ac:dyDescent="0.2">
-      <c r="G16" s="31">
+      <c r="G16" s="27">
         <v>1</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="21"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="20"/>
     </row>
     <row r="17" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="21"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="20"/>
     </row>
     <row r="18" spans="7:24" x14ac:dyDescent="0.2">
-      <c r="G18" s="31">
+      <c r="G18" s="27">
         <v>134322</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="21"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="20"/>
     </row>
     <row r="19" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="21"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="20"/>
     </row>
     <row r="20" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="21"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="20"/>
     </row>
     <row r="21" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="21"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="20"/>
     </row>
     <row r="22" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="R22" s="20" t="s">
+      <c r="R22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="S22" s="20" t="s">
+      <c r="S22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="21"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="20"/>
     </row>
     <row r="23" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="21"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="20"/>
     </row>
     <row r="24" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="21"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="20"/>
     </row>
     <row r="25" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="21"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="20"/>
     </row>
     <row r="26" spans="7:24" x14ac:dyDescent="0.2">
-      <c r="G26" s="31">
+      <c r="G26" s="27">
         <v>671610</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="21"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="20"/>
     </row>
     <row r="27" spans="7:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G27" s="4"/>
@@ -1385,16 +1474,16 @@
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
       <c r="X27" s="7"/>
     </row>
     <row r="45" spans="20:20" x14ac:dyDescent="0.2">
@@ -1412,4 +1501,67 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE7A55F-67A7-4173-AC71-430C952270E0}">
+  <dimension ref="E22:M23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="22" spans="5:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="I22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E23" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/report/模型方针.xlsx
+++ b/report/模型方针.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kaggle\2020-NCAAM\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8F47A4-C86F-40D1-87F3-3EE7CA704CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E96794-EC94-4F05-A80C-81AC578A7B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{AF72B365-8FEA-4E92-8DDD-0134CFD12162}"/>
+    <workbookView xWindow="2985" yWindow="2880" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{AF72B365-8FEA-4E92-8DDD-0134CFD12162}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="0304" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -281,6 +282,34 @@
   <si>
     <t>Team_a_FGM3_rate</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认重复数据（ID重复）， 找出处理方法（建立新ID or 把重复的数据进行合并或删除）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNCAATourneySeed.csv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件，来进行各个队伍的战绩统计（淘汰赛战绩）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐重要度高</t>
+  </si>
+  <si>
+    <t>1.出现a,b的为末位排名，可进行次数统计</t>
+  </si>
+  <si>
+    <t>2.末位排名后，进行first_four生死赛，生死赛中生存的次数可进行统计。</t>
+  </si>
+  <si>
+    <t>3. 锦标赛排名分值：各个地区（四个w,x,y,z）中的排名有参考价值，故应队排名加次数赋值，合计（例：w01-16scores），未能进入到锦标赛的队伍，此项分值为0</t>
   </si>
 </sst>
 </file>
@@ -504,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,9 +588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -613,6 +639,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,14 +660,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED05429-74C0-41CC-8B35-32A1B500AAE4}">
   <dimension ref="G3:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:P28"/>
+    <sheetView topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,7 +1037,7 @@
       <c r="J6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="41" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1013,7 +1048,7 @@
       <c r="J7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="39"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="7:33" ht="57" x14ac:dyDescent="0.2">
       <c r="I8" s="2" t="s">
@@ -1115,30 +1150,30 @@
     <row r="14" spans="7:33" x14ac:dyDescent="0.2">
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="36" t="s">
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="36" t="s">
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="31" t="s">
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="U14" s="32" t="s">
+      <c r="U14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="32" t="s">
+      <c r="V14" s="31" t="s">
         <v>49</v>
       </c>
       <c r="W14" s="8" t="s">
@@ -1149,322 +1184,326 @@
       </c>
     </row>
     <row r="15" spans="7:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="Q15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="24" t="s">
+      <c r="R15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="T15" s="33" t="s">
+      <c r="T15" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
       <c r="W15" s="9"/>
       <c r="X15" s="11"/>
     </row>
     <row r="16" spans="7:33" x14ac:dyDescent="0.2">
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <v>1</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="20"/>
+      <c r="I16" s="42">
+        <v>1101</v>
+      </c>
+      <c r="J16" s="43"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="17">
+        <v>1102</v>
+      </c>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="19"/>
     </row>
     <row r="17" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="20"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="19"/>
     </row>
     <row r="18" spans="7:24" x14ac:dyDescent="0.2">
-      <c r="G18" s="27">
+      <c r="G18" s="26">
         <v>134322</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="20"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="19"/>
     </row>
     <row r="19" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="20"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="19"/>
     </row>
     <row r="20" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="20"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="19"/>
     </row>
     <row r="21" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="20"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="19"/>
     </row>
     <row r="22" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19" t="s">
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="R22" s="19" t="s">
+      <c r="R22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="S22" s="19" t="s">
+      <c r="S22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="20"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="19"/>
     </row>
     <row r="23" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="20"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="19"/>
     </row>
     <row r="24" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="18"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="20"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="19"/>
     </row>
     <row r="25" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="20"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="19"/>
     </row>
     <row r="26" spans="7:24" x14ac:dyDescent="0.2">
-      <c r="G26" s="27">
+      <c r="G26" s="26">
         <v>671610</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="20"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="19"/>
     </row>
     <row r="27" spans="7:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G27" s="4"/>
@@ -1474,17 +1513,27 @@
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
       <c r="X27" s="7"/>
+    </row>
+    <row r="29" spans="7:24" x14ac:dyDescent="0.2">
+      <c r="H29" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="7:24" x14ac:dyDescent="0.2">
+      <c r="H30" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T45" t="s">
@@ -1508,7 +1557,7 @@
   <dimension ref="E22:M23"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1519,7 +1568,7 @@
     <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="5:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="I22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1534,31 +1583,92 @@
       </c>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="42"/>
+      <c r="M23" s="37"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165BB5D7-2223-46FD-A277-6C3BC3BAD135}">
+  <dimension ref="B18:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/report/模型方针.xlsx
+++ b/report/模型方针.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kaggle\2020-NCAAM\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DS_DA_prep\Kaggle\NCCA\2020-NCAAM\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E96794-EC94-4F05-A80C-81AC578A7B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C857C9-E0A6-48B4-8163-5BCE8C2A9921}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2880" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{AF72B365-8FEA-4E92-8DDD-0134CFD12162}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AF72B365-8FEA-4E92-8DDD-0134CFD12162}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>确认重复数据（ID重复）， 找出处理方法（建立新ID or 把重复的数据进行合并或删除）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>利用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -310,17 +306,20 @@
   </si>
   <si>
     <t>3. 锦标赛排名分值：各个地区（四个w,x,y,z）中的排名有参考价值，故应队排名加次数赋值，合计（例：w01-16scores），未能进入到锦标赛的队伍，此项分值为0</t>
+  </si>
+  <si>
+    <t>确认重复数据（ID重复）， 找出处理方法（建立新ID or 把重复的数据进行合并或删除）（Done）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -328,14 +327,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -533,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +647,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,18 +668,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -687,7 +689,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -989,18 +991,18 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
     <col min="11" max="11" width="9" style="2"/>
     <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="13" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:33" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="7:33" ht="57.6">
       <c r="I3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1008,7 +1010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="7:33" ht="114" x14ac:dyDescent="0.2">
+    <row r="4" spans="7:33" ht="115.2">
       <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="7:33" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="7:33" ht="57.6">
       <c r="I5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1030,27 +1032,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="7:33" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="7:33" ht="43.2">
       <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="7:33" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="7:33" ht="43.2">
       <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="41"/>
-    </row>
-    <row r="8" spans="7:33" ht="57" x14ac:dyDescent="0.2">
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="7:33" ht="57.6">
       <c r="I8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="7:33" ht="171" x14ac:dyDescent="0.2">
+    <row r="9" spans="7:33" ht="172.8">
       <c r="I9" t="s">
         <v>30</v>
       </c>
@@ -1075,7 +1077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="7:33" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:33" ht="129.6">
       <c r="I10" t="s">
         <v>31</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="7:33" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:33" ht="57.6">
       <c r="I11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1111,7 +1113,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="7:33" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:33" ht="101.4" thickBot="1">
       <c r="I12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1125,7 +1127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="7:33" s="1" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:33" s="1" customFormat="1" ht="43.8" thickBot="1">
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -1147,26 +1149,26 @@
       <c r="W13" s="14"/>
       <c r="X13" s="15"/>
     </row>
-    <row r="14" spans="7:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="7:33">
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="38" t="s">
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="38" t="s">
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
       <c r="T14" s="30" t="s">
         <v>30</v>
       </c>
@@ -1183,7 +1185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="7:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:33" ht="15" thickBot="1">
       <c r="G15" s="26" t="s">
         <v>0</v>
       </c>
@@ -1231,26 +1233,26 @@
       <c r="W15" s="9"/>
       <c r="X15" s="11"/>
     </row>
-    <row r="16" spans="7:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="7:33">
       <c r="G16" s="26">
         <v>1</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="38">
         <v>1101</v>
       </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
       <c r="M16" s="17">
         <v>1102</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
-      <c r="Q16" s="44"/>
+      <c r="Q16" s="40"/>
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
       <c r="T16" s="34"/>
@@ -1259,22 +1261,22 @@
       <c r="W16" s="18"/>
       <c r="X16" s="19"/>
     </row>
-    <row r="17" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:24" ht="18">
       <c r="G17" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
       <c r="M17" s="17"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
-      <c r="Q17" s="44"/>
+      <c r="Q17" s="40"/>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
       <c r="T17" s="34"/>
@@ -1283,22 +1285,22 @@
       <c r="W17" s="18"/>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:24">
       <c r="G18" s="26">
         <v>134322</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
       <c r="M18" s="17"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="44"/>
+      <c r="Q18" s="40"/>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
       <c r="T18" s="34"/>
@@ -1307,22 +1309,22 @@
       <c r="W18" s="18"/>
       <c r="X18" s="19"/>
     </row>
-    <row r="19" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:24" ht="18">
       <c r="G19" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
-      <c r="Q19" s="44"/>
+      <c r="Q19" s="40"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
       <c r="T19" s="34"/>
@@ -1331,22 +1333,22 @@
       <c r="W19" s="18"/>
       <c r="X19" s="19"/>
     </row>
-    <row r="20" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:24" ht="18">
       <c r="G20" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
       <c r="M20" s="17"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
-      <c r="Q20" s="44"/>
+      <c r="Q20" s="40"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="34"/>
@@ -1355,22 +1357,22 @@
       <c r="W20" s="18"/>
       <c r="X20" s="19"/>
     </row>
-    <row r="21" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:24" ht="18">
       <c r="G21" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
-      <c r="Q21" s="44"/>
+      <c r="Q21" s="40"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
       <c r="T21" s="34"/>
@@ -1379,22 +1381,22 @@
       <c r="W21" s="18"/>
       <c r="X21" s="19"/>
     </row>
-    <row r="22" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:24" ht="18">
       <c r="G22" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="39"/>
       <c r="M22" s="17"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
-      <c r="Q22" s="44" t="s">
+      <c r="Q22" s="40" t="s">
         <v>45</v>
       </c>
       <c r="R22" s="18" t="s">
@@ -1409,22 +1411,22 @@
       <c r="W22" s="18"/>
       <c r="X22" s="19"/>
     </row>
-    <row r="23" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:24" ht="18">
       <c r="G23" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
       <c r="M23" s="17"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
-      <c r="Q23" s="44"/>
+      <c r="Q23" s="40"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
       <c r="T23" s="34"/>
@@ -1433,22 +1435,22 @@
       <c r="W23" s="18"/>
       <c r="X23" s="19"/>
     </row>
-    <row r="24" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:24" ht="18">
       <c r="G24" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="43"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="39"/>
       <c r="M24" s="17"/>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="44"/>
+      <c r="Q24" s="40"/>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
       <c r="T24" s="34"/>
@@ -1457,22 +1459,22 @@
       <c r="W24" s="18"/>
       <c r="X24" s="19"/>
     </row>
-    <row r="25" spans="7:24" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:24" ht="18">
       <c r="G25" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="43"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
       <c r="M25" s="17"/>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
-      <c r="Q25" s="44"/>
+      <c r="Q25" s="40"/>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
       <c r="T25" s="34"/>
@@ -1481,22 +1483,22 @@
       <c r="W25" s="18"/>
       <c r="X25" s="19"/>
     </row>
-    <row r="26" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:24">
       <c r="G26" s="26">
         <v>671610</v>
       </c>
       <c r="H26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
       <c r="M26" s="17"/>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
-      <c r="Q26" s="44"/>
+      <c r="Q26" s="40"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
       <c r="T26" s="34"/>
@@ -1505,7 +1507,7 @@
       <c r="W26" s="18"/>
       <c r="X26" s="19"/>
     </row>
-    <row r="27" spans="7:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:24" ht="15" thickBot="1">
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1525,17 +1527,17 @@
       <c r="W27" s="20"/>
       <c r="X27" s="7"/>
     </row>
-    <row r="29" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="7:24">
       <c r="H29" s="27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="7:24">
       <c r="H30" s="27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="20:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="20:20">
       <c r="T45" t="s">
         <v>51</v>
       </c>
@@ -1560,15 +1562,15 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="5:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:13" s="1" customFormat="1" ht="28.8">
       <c r="I22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1582,7 +1584,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:13">
       <c r="E23" s="35" t="s">
         <v>52</v>
       </c>
@@ -1619,55 +1621,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165BB5D7-2223-46FD-A277-6C3BC3BAD135}">
   <dimension ref="B18:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="20" spans="2:5">
+      <c r="D20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+    <row r="21" spans="2:5">
+      <c r="D21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
+    <row r="22" spans="2:5">
+      <c r="D22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+    <row r="23" spans="2:5">
+      <c r="D23" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
